--- a/outputs-HGR-r202/f__Muribaculaceae.xlsx
+++ b/outputs-HGR-r202/f__Muribaculaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,448 +509,548 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12030.fa</t>
+          <t>even_MAG-GUT10734.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.004097969347430837</v>
+        <v>7.953075164730829e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>1.260670813064142e-05</v>
+        <v>9.456189498229577e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0009313686155775336</v>
+        <v>0.9833928273809941</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9591988127128437</v>
+        <v>0.0001654860211448252</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000245968191862956</v>
+        <v>0.004460321789237848</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003706128989378131</v>
+        <v>6.852515834772848e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>6.141728055636279e-05</v>
+        <v>0.0006836343632590778</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03491679135214337</v>
+        <v>0.0001294178497264396</v>
       </c>
       <c r="J2" t="n">
-        <v>2.711618015909065e-07</v>
+        <v>5.046528754048097e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001641817307152356</v>
+        <v>0.01094680717960244</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9591988127128437</v>
+        <v>0.9833928273809941</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>g__CAG-485</t>
+          <t>g__CAG-279</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>g__CAG-485</t>
+          <t>g__CAG-279</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24184.fa</t>
+          <t>even_MAG-GUT12030.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.346256815633262e-06</v>
+        <v>0.004097969347430837</v>
       </c>
       <c r="C3" t="n">
-        <v>4.395508153174944e-06</v>
+        <v>1.260670813064142e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9765684593987954</v>
+        <v>0.0009313686155775336</v>
       </c>
       <c r="E3" t="n">
-        <v>2.402489208772386e-05</v>
+        <v>0.9591988127128437</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01419387422965147</v>
+        <v>0.000245968191862956</v>
       </c>
       <c r="G3" t="n">
-        <v>9.02603608445124e-06</v>
+        <v>0.0003706128989378131</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000937021017217044</v>
+        <v>6.141728055636279e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0005293087927166176</v>
+        <v>0.03491679135214337</v>
       </c>
       <c r="J3" t="n">
-        <v>6.050258332432053e-05</v>
+        <v>2.711618015909065e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>0.007664041285154112</v>
+        <v>0.0001641817307152356</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9765684593987954</v>
+        <v>0.9591988127128437</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>g__CAG-279</t>
+          <t>g__CAG-485</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>g__CAG-279</t>
+          <t>g__CAG-485</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27129.fa</t>
+          <t>even_MAG-GUT24184.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.004049695573698826</v>
+        <v>9.346256815633262e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>1.846993748569345e-07</v>
+        <v>4.395508153174944e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0003586968350902637</v>
+        <v>0.9765684593987954</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0007519005454975157</v>
+        <v>2.402489208772386e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9934057683289066</v>
+        <v>0.01419387422965147</v>
       </c>
       <c r="G4" t="n">
-        <v>3.945782111535147e-06</v>
+        <v>9.02603608445124e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0004412512906026679</v>
+        <v>0.000937021017217044</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0007085389255350934</v>
+        <v>0.0005293087927166176</v>
       </c>
       <c r="J4" t="n">
-        <v>1.387054008601565e-06</v>
+        <v>6.050258332432053e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0002786309651739879</v>
+        <v>0.007664041285154112</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9934057683289066</v>
+        <v>0.9765684593987954</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>g__CAG-873</t>
+          <t>g__CAG-279</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>g__CAG-873</t>
+          <t>g__CAG-279</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28915.fa</t>
+          <t>even_MAG-GUT27129.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.331977912987058e-12</v>
+        <v>0.004049695573698826</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9981979605385701</v>
+        <v>1.846993748569345e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>2.490436376739748e-07</v>
+        <v>0.0003586968350902637</v>
       </c>
       <c r="E5" t="n">
-        <v>5.808626441916709e-05</v>
+        <v>0.0007519005454975157</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000541989973289679</v>
+        <v>0.9934057683289066</v>
       </c>
       <c r="G5" t="n">
-        <v>3.688411548884533e-05</v>
+        <v>3.945782111535147e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>1.053388288131781e-05</v>
+        <v>0.0004412512906026679</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001132419747963099</v>
+        <v>0.0007085389255350934</v>
       </c>
       <c r="J5" t="n">
-        <v>7.365813341871257e-06</v>
+        <v>1.387054008601565e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>1.451061107641738e-05</v>
+        <v>0.0002786309651739879</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9981979605385701</v>
+        <v>0.9934057683289066</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>g__CAG-1031</t>
+          <t>g__CAG-873</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>g__CAG-1031</t>
+          <t>g__CAG-873</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32343.fa</t>
+          <t>even_MAG-GUT28915.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.62757161203662e-07</v>
+        <v>9.331977912987058e-12</v>
       </c>
       <c r="C6" t="n">
-        <v>3.560365108937878e-05</v>
+        <v>0.9981979605385701</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9830198956710405</v>
+        <v>2.490436376739748e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>1.039734693545361e-05</v>
+        <v>5.808626441916709e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0002081833145267349</v>
+        <v>0.000541989973289679</v>
       </c>
       <c r="G6" t="n">
-        <v>2.581770660854937e-05</v>
+        <v>3.688411548884533e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0038838590415308</v>
+        <v>1.053388288131781e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>1.766337399731154e-05</v>
+        <v>0.001132419747963099</v>
       </c>
       <c r="J6" t="n">
-        <v>4.280467609330103e-05</v>
+        <v>7.365813341871257e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01275521246101693</v>
+        <v>1.451061107641738e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9830198956710405</v>
+        <v>0.9981979605385701</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>g__CAG-279</t>
+          <t>g__CAG-1031</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>g__CAG-279</t>
+          <t>g__CAG-1031</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41378.fa</t>
+          <t>even_MAG-GUT32343.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001493288436859087</v>
+        <v>5.62757161203662e-07</v>
       </c>
       <c r="C7" t="n">
-        <v>1.053180250217448e-06</v>
+        <v>3.560365108937878e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0009346153405402309</v>
+        <v>0.9830198956710405</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005563068797387918</v>
+        <v>1.039734693545361e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9915623093472883</v>
+        <v>0.0002081833145267349</v>
       </c>
       <c r="G7" t="n">
-        <v>2.577023865814556e-06</v>
+        <v>2.581770660854937e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>4.564858950998929e-05</v>
+        <v>0.0038838590415308</v>
       </c>
       <c r="I7" t="n">
-        <v>3.016755698397836e-05</v>
+        <v>1.766337399731154e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>3.527627132794035e-07</v>
+        <v>4.280467609330103e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0003669189646010618</v>
+        <v>0.01275521246101693</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9915623093472883</v>
+        <v>0.9830198956710405</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>g__CAG-873</t>
+          <t>g__CAG-279</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>g__CAG-873</t>
+          <t>g__CAG-279</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4600.fa</t>
+          <t>even_MAG-GUT41378.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.09439598327739e-07</v>
+        <v>0.001493288436859087</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000858042660325345</v>
+        <v>1.053180250217448e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9858758664961274</v>
+        <v>0.0009346153405402309</v>
       </c>
       <c r="E8" t="n">
-        <v>1.841071955762064e-05</v>
+        <v>0.005563068797387918</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002029881570789201</v>
+        <v>0.9915623093472883</v>
       </c>
       <c r="G8" t="n">
-        <v>3.881855407330667e-05</v>
+        <v>2.577023865814556e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003841076042615095</v>
+        <v>4.564858950998929e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>6.115182273232812e-05</v>
+        <v>3.016755698397836e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001652442762539265</v>
+        <v>3.527627132794035e-07</v>
       </c>
       <c r="K8" t="n">
-        <v>0.007110698417927584</v>
+        <v>0.0003669189646010618</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9858758664961274</v>
+        <v>0.9915623093472883</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>g__CAG-279</t>
+          <t>g__CAG-873</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>g__CAG-279</t>
+          <t>g__CAG-873</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55743.fa</t>
+          <t>even_MAG-GUT4600.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001047416559282978</v>
+        <v>8.09439598327739e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>5.875582328273026e-06</v>
+        <v>0.000858042660325345</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0003389316508785057</v>
+        <v>0.9858758664961274</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9941331525247045</v>
+        <v>1.841071955762064e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002254327863925643</v>
+        <v>0.002029881570789201</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0005043338330520353</v>
+        <v>3.881855407330667e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>4.972196488487319e-05</v>
+        <v>0.003841076042615095</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001606819916678837</v>
+        <v>6.115182273232812e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>7.733577241356961e-08</v>
+        <v>0.0001652442762539265</v>
       </c>
       <c r="K9" t="n">
-        <v>5.934276849215804e-05</v>
+        <v>0.007110698417927584</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9941331525247045</v>
+        <v>0.9858758664961274</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>g__CAG-485</t>
+          <t>g__CAG-279</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>g__CAG-485</t>
+          <t>g__CAG-279</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT55743.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.001047416559282978</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.875582328273026e-06</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0003389316508785057</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9941331525247045</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.002254327863925643</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0005043338330520353</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.972196488487319e-05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.001606819916678837</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7.733577241356961e-08</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.934276849215804e-05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9941331525247045</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>g__CAG-485</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>g__CAG-485</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT78923.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.220229618623735e-14</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.190356985506817e-08</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9990224882107714</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.420944279557694e-09</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.995287346807174e-10</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.220229618623735e-14</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.794141904834185e-08</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.37887776812383e-11</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0009774473682358431</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.054169775510736e-08</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9990224882107714</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>g__CAG-279</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>g__CAG-279</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT86504.fa</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B12" t="n">
         <v>0.02060473627867615</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C12" t="n">
         <v>2.736776163285074e-08</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D12" t="n">
         <v>0.0002435188292323093</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E12" t="n">
         <v>0.004854178091389698</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F12" t="n">
         <v>0.9736382280742581</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G12" t="n">
         <v>3.568438445252853e-06</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H12" t="n">
         <v>0.0003839879324762968</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I12" t="n">
         <v>0.0002521551196858759</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J12" t="n">
         <v>5.168412298733547e-07</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K12" t="n">
         <v>1.908302684460528e-05</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L12" t="n">
         <v>0.9736382280742581</v>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>g__CAG-873</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>g__CAG-873</t>
         </is>

--- a/outputs-HGR-r202/f__Muribaculaceae.xlsx
+++ b/outputs-HGR-r202/f__Muribaculaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -545,6 +550,11 @@
           <t>g__CAG-279</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>g__CAG-279</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -590,6 +600,11 @@
           <t>g__CAG-485</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>g__CAG-485</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -635,6 +650,11 @@
           <t>g__CAG-279</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>g__CAG-279</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -680,6 +700,11 @@
           <t>g__CAG-873</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>g__CAG-873</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -725,6 +750,11 @@
           <t>g__CAG-279</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>g__CAG-279</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -770,6 +800,11 @@
           <t>g__CAG-1031</t>
         </is>
       </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>g__CAG-1031</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -815,6 +850,11 @@
           <t>g__CAG-279</t>
         </is>
       </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>g__CAG-279</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -860,6 +900,11 @@
           <t>g__CAG-279</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>g__CAG-279(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -905,6 +950,11 @@
           <t>g__CAG-873</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>g__CAG-873</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -950,6 +1000,11 @@
           <t>g__CAG-279</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>g__CAG-279</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -995,6 +1050,11 @@
           <t>g__CAG-485</t>
         </is>
       </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>g__CAG-485</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1040,6 +1100,11 @@
           <t>g__CAG-279</t>
         </is>
       </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>g__CAG-279</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1081,6 +1146,11 @@
         <v>0.9736382280742581</v>
       </c>
       <c r="M14" t="inlineStr">
+        <is>
+          <t>g__CAG-873</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>g__CAG-873</t>
         </is>

--- a/outputs-HGR-r202/f__Muribaculaceae.xlsx
+++ b/outputs-HGR-r202/f__Muribaculaceae.xlsx
@@ -952,7 +952,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>g__CAG-485</t>
+          <t>g__CAG-485(reject)</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>g__CAG-485</t>
+          <t>g__CAG-485(reject)</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>g__CAG-485</t>
+          <t>g__CAG-485(reject)</t>
         </is>
       </c>
     </row>
